--- a/Microcode Generator.xlsx
+++ b/Microcode Generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Can\FÖDEVLER\CSE4117\HW1\cse4117-hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D590F19-E0D0-4228-AF2C-F304A1759271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4F0E95-BD69-46EC-A455-4D30B3776B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE8CB966-0C5E-436C-AC6F-D64CE43CCC0D}"/>
   </bookViews>
@@ -429,6 +429,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,19 +472,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,7 +789,7 @@
   <dimension ref="C1:AQ34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="AA11" sqref="AA11:AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,78 +804,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
     </row>
     <row r="2" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
     </row>
     <row r="3" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
     </row>
     <row r="6" spans="3:43" x14ac:dyDescent="0.25">
       <c r="AA6" s="9"/>
@@ -916,32 +916,32 @@
       <c r="AQ7" s="11"/>
     </row>
     <row r="8" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
@@ -1020,10 +1020,10 @@
       <c r="Y9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Z9" s="30" t="s">
+      <c r="Z9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" s="31" t="s">
+      <c r="AA9" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AB9" s="10"/>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
-      <c r="AB10" s="32"/>
+      <c r="AB10" s="22"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
@@ -1135,40 +1135,40 @@
         <f t="shared" ref="D11:D28" si="0">ROW()-11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="29">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29">
-        <v>1</v>
-      </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29">
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19">
+        <v>1</v>
+      </c>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19">
         <v>1</v>
       </c>
       <c r="Y11" s="8">
         <v>0</v>
       </c>
-      <c r="Z11" s="29" t="str" cm="1">
+      <c r="Z11" s="19" t="str" cm="1">
         <f t="array" ref="Z11">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E11:X11),0,1),DEC2BIN(Y11,5))</f>
         <v>0001000000000001000000100000</v>
       </c>
-      <c r="AA11" s="29" t="str">
+      <c r="AA11" s="19" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z11,8)),BIN2HEX(MID(Z11,9,8),2),BIN2HEX(MID(Z11,17,8),2),BIN2HEX(RIGHT(Z11,4)))</f>
         <v>1001020</v>
       </c>
@@ -1197,40 +1197,40 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29">
-        <v>1</v>
-      </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29">
-        <v>1</v>
-      </c>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29">
-        <v>1</v>
-      </c>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19">
+        <v>1</v>
+      </c>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19">
+        <v>1</v>
+      </c>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19">
+        <v>1</v>
+      </c>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
       <c r="Y12" s="8">
         <v>0</v>
       </c>
-      <c r="Z12" s="29" t="str" cm="1">
+      <c r="Z12" s="19" t="str" cm="1">
         <f t="array" ref="Z12">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E12:X12),0,1),DEC2BIN(Y12,5))</f>
         <v>0000000000000001001010000000</v>
       </c>
-      <c r="AA12" s="29" t="str">
+      <c r="AA12" s="19" t="str">
         <f t="shared" ref="AA12:AA32" si="1">_xlfn.CONCAT(BIN2HEX(LEFT(Z12,8),2),BIN2HEX(MID(Z12,9,8),2),BIN2HEX(MID(Z12,17,8),2),BIN2HEX(RIGHT(Z12,4)))</f>
         <v>0001280</v>
       </c>
@@ -1259,40 +1259,40 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29">
-        <v>1</v>
-      </c>
-      <c r="T13" s="29">
-        <v>1</v>
-      </c>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29">
-        <v>1</v>
-      </c>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19">
+        <v>1</v>
+      </c>
+      <c r="T13" s="19">
+        <v>1</v>
+      </c>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19">
+        <v>1</v>
+      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
       <c r="Y13" s="8">
         <v>0</v>
       </c>
-      <c r="Z13" s="29" t="str" cm="1">
+      <c r="Z13" s="19" t="str" cm="1">
         <f t="array" ref="Z13">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E13:X13),0,1),DEC2BIN(Y13,5))</f>
         <v>0000000000000000011010000000</v>
       </c>
-      <c r="AA13" s="29" t="str">
+      <c r="AA13" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0000680</v>
       </c>
@@ -1321,38 +1321,38 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29">
-        <v>1</v>
-      </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29">
-        <v>1</v>
-      </c>
-      <c r="X14" s="29"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19">
+        <v>1</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19">
+        <v>1</v>
+      </c>
+      <c r="X14" s="19"/>
       <c r="Y14" s="8">
         <v>0</v>
       </c>
-      <c r="Z14" s="29" t="str" cm="1">
+      <c r="Z14" s="19" t="str" cm="1">
         <f t="array" ref="Z14">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E14:X14),0,1),DEC2BIN(Y14,5))</f>
         <v>0000000000000000010001000000</v>
       </c>
-      <c r="AA14" s="29" t="str">
+      <c r="AA14" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0000440</v>
       </c>
@@ -1381,36 +1381,38 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19">
+        <v>1</v>
+      </c>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
       <c r="Y15" s="8">
         <v>0</v>
       </c>
-      <c r="Z15" s="29" t="str" cm="1">
+      <c r="Z15" s="19" t="str" cm="1">
         <f t="array" ref="Z15">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E15:X15),0,1),DEC2BIN(Y15,5))</f>
-        <v>0000000000000000000000000000</v>
-      </c>
-      <c r="AA15" s="29" t="str">
+        <v>0000000000000001000000000000</v>
+      </c>
+      <c r="AA15" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0000000</v>
+        <v>0001000</v>
       </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
@@ -1437,38 +1439,40 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19">
+        <v>1</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
       <c r="Y16" s="8">
         <v>0</v>
       </c>
-      <c r="Z16" s="29" t="str" cm="1">
+      <c r="Z16" s="19" t="str" cm="1">
         <f t="array" ref="Z16">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E16:X16),0,1),DEC2BIN(Y16,5))</f>
-        <v>0000000000000010000000000000</v>
-      </c>
-      <c r="AA16" s="29" t="str">
+        <v>0000000000010010000000000000</v>
+      </c>
+      <c r="AA16" s="19" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z16,8),2),BIN2HEX(MID(Z16,9,8),2),BIN2HEX(MID(Z16,17,8),2),BIN2HEX(RIGHT(Z16,4)))</f>
-        <v>0002000</v>
+        <v>0012000</v>
       </c>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
@@ -1488,41 +1492,41 @@
       <c r="AQ16" s="11"/>
     </row>
     <row r="17" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
       <c r="Y17" s="8">
         <v>0</v>
       </c>
-      <c r="Z17" s="29" t="str" cm="1">
+      <c r="Z17" s="19" t="str" cm="1">
         <f t="array" ref="Z17">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E17:X17),0,1),DEC2BIN(Y17,5))</f>
         <v>0000000000000000000000000000</v>
       </c>
-      <c r="AA17" s="29" t="str">
+      <c r="AA17" s="19" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z17,8),2),BIN2HEX(MID(Z17,9,8),2),BIN2HEX(MID(Z17,17,8),2),BIN2HEX(RIGHT(Z17,4)))</f>
         <v>0000000</v>
       </c>
@@ -1551,38 +1555,38 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29">
-        <v>1</v>
-      </c>
-      <c r="U18" s="29">
-        <v>1</v>
-      </c>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19">
+        <v>1</v>
+      </c>
+      <c r="U18" s="19">
+        <v>1</v>
+      </c>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
       <c r="Y18" s="8">
         <v>0</v>
       </c>
-      <c r="Z18" s="29" t="str" cm="1">
+      <c r="Z18" s="19" t="str" cm="1">
         <f t="array" ref="Z18">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E18:X18),0,1),DEC2BIN(Y18,5))</f>
         <v>0000000000000000001100000000</v>
       </c>
-      <c r="AA18" s="29" t="str">
+      <c r="AA18" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0000300</v>
       </c>
@@ -1611,40 +1615,40 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29">
-        <v>1</v>
-      </c>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29">
-        <v>1</v>
-      </c>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29">
-        <v>1</v>
-      </c>
-      <c r="X19" s="29"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19">
+        <v>1</v>
+      </c>
+      <c r="X19" s="19"/>
       <c r="Y19" s="8">
         <v>0</v>
       </c>
-      <c r="Z19" s="29" t="str" cm="1">
+      <c r="Z19" s="19" t="str" cm="1">
         <f t="array" ref="Z19">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E19:X19),0,1),DEC2BIN(Y19,5))</f>
         <v>0000000000000100100001000000</v>
       </c>
-      <c r="AA19" s="29" t="str">
+      <c r="AA19" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0004840</v>
       </c>
@@ -1673,36 +1677,36 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29">
-        <v>1</v>
-      </c>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19">
+        <v>1</v>
+      </c>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
       <c r="Y20" s="8">
         <v>17</v>
       </c>
-      <c r="Z20" s="29" t="str" cm="1">
+      <c r="Z20" s="19" t="str" cm="1">
         <f t="array" ref="Z20">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E20:X20),0,1),DEC2BIN(Y20,5))</f>
         <v>0000000000001000000000010001</v>
       </c>
-      <c r="AA20" s="29" t="str">
+      <c r="AA20" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0008011</v>
       </c>
@@ -1731,44 +1735,44 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29">
-        <v>1</v>
-      </c>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29">
-        <v>1</v>
-      </c>
-      <c r="P21" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29">
-        <v>1</v>
-      </c>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29">
-        <v>1</v>
-      </c>
-      <c r="X21" s="29"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19">
+        <v>1</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19">
+        <v>1</v>
+      </c>
+      <c r="P21" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19">
+        <v>1</v>
+      </c>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19">
+        <v>1</v>
+      </c>
+      <c r="X21" s="19"/>
       <c r="Y21" s="8">
         <v>0</v>
       </c>
-      <c r="Z21" s="29" t="str" cm="1">
+      <c r="Z21" s="19" t="str" cm="1">
         <f t="array" ref="Z21">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E21:X21),0,1),DEC2BIN(Y21,5))</f>
         <v>0000000000100110100001000000</v>
       </c>
-      <c r="AA21" s="29" t="str">
+      <c r="AA21" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0026840</v>
       </c>
@@ -1797,36 +1801,36 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29">
-        <v>1</v>
-      </c>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19">
+        <v>1</v>
+      </c>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
       <c r="Y22" s="8">
         <v>18</v>
       </c>
-      <c r="Z22" s="29" t="str" cm="1">
+      <c r="Z22" s="19" t="str" cm="1">
         <f t="array" ref="Z22">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E22:X22),0,1),DEC2BIN(Y22,5))</f>
         <v>0000000000001000000000010010</v>
       </c>
-      <c r="AA22" s="29" t="str">
+      <c r="AA22" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0008012</v>
       </c>
@@ -1855,42 +1859,42 @@
         <f t="shared" ref="D23:D32" si="2">ROW()-11</f>
         <v>12</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29">
-        <v>1</v>
-      </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29">
-        <v>1</v>
-      </c>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29">
-        <v>1</v>
-      </c>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29">
-        <v>1</v>
-      </c>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19">
+        <v>1</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19">
+        <v>1</v>
+      </c>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19">
+        <v>1</v>
+      </c>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19">
+        <v>1</v>
+      </c>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
       <c r="Y23" s="8">
         <v>0</v>
       </c>
-      <c r="Z23" s="29" t="str" cm="1">
+      <c r="Z23" s="19" t="str" cm="1">
         <f t="array" ref="Z23">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E23:X23),0,1),DEC2BIN(Y23,5))</f>
         <v>0000000010000000101010000000</v>
       </c>
-      <c r="AA23" s="29" t="str">
+      <c r="AA23" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0080A80</v>
       </c>
@@ -1919,44 +1923,44 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29">
-        <v>1</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29">
-        <v>1</v>
-      </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29">
-        <v>1</v>
-      </c>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29">
-        <v>1</v>
-      </c>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19">
+        <v>1</v>
+      </c>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19">
+        <v>1</v>
+      </c>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19">
+        <v>1</v>
+      </c>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19">
+        <v>1</v>
+      </c>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
       <c r="Y24" s="8">
         <v>0</v>
       </c>
-      <c r="Z24" s="29" t="str" cm="1">
+      <c r="Z24" s="19" t="str" cm="1">
         <f t="array" ref="Z24">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E24:X24),0,1),DEC2BIN(Y24,5))</f>
         <v>0000000100010010100010000000</v>
       </c>
-      <c r="AA24" s="29" t="str">
+      <c r="AA24" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0112880</v>
       </c>
@@ -1985,36 +1989,36 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29">
-        <v>1</v>
-      </c>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19">
+        <v>1</v>
+      </c>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
       <c r="Y25" s="8">
         <v>16</v>
       </c>
-      <c r="Z25" s="29" t="str" cm="1">
+      <c r="Z25" s="19" t="str" cm="1">
         <f t="array" ref="Z25">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E25:X25),0,1),DEC2BIN(Y25,5))</f>
         <v>0000000000001000000000010000</v>
       </c>
-      <c r="AA25" s="29" t="str">
+      <c r="AA25" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0008010</v>
       </c>
@@ -2043,46 +2047,46 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29">
-        <v>1</v>
-      </c>
-      <c r="N26" s="29">
-        <v>1</v>
-      </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29">
-        <v>1</v>
-      </c>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29">
-        <v>1</v>
-      </c>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29">
-        <v>1</v>
-      </c>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19">
+        <v>1</v>
+      </c>
+      <c r="N26" s="19">
+        <v>1</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19">
+        <v>1</v>
+      </c>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19">
+        <v>1</v>
+      </c>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19">
+        <v>1</v>
+      </c>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
       <c r="Y26" s="8">
         <v>17</v>
       </c>
-      <c r="Z26" s="29" t="str" cm="1">
+      <c r="Z26" s="19" t="str" cm="1">
         <f t="array" ref="Z26">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E26:X26),0,1),DEC2BIN(Y26,5))</f>
         <v>0000000000011010101010010001</v>
       </c>
-      <c r="AA26" s="29" t="str">
+      <c r="AA26" s="19" t="str">
         <f t="shared" si="1"/>
         <v>001AA91</v>
       </c>
@@ -2111,38 +2115,38 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29">
-        <v>1</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29">
-        <v>1</v>
-      </c>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19">
+        <v>1</v>
+      </c>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
       <c r="Y27" s="8">
         <v>0</v>
       </c>
-      <c r="Z27" s="29" t="str" cm="1">
+      <c r="Z27" s="19" t="str" cm="1">
         <f t="array" ref="Z27">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E27:X27),0,1),DEC2BIN(Y27,5))</f>
         <v>0000100000000000100000000000</v>
       </c>
-      <c r="AA27" s="29" t="str">
+      <c r="AA27" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0800800</v>
       </c>
@@ -2171,38 +2175,38 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29">
-        <v>1</v>
-      </c>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29">
-        <v>1</v>
-      </c>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19">
+        <v>1</v>
+      </c>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19">
+        <v>1</v>
+      </c>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
       <c r="Y28" s="8">
         <v>0</v>
       </c>
-      <c r="Z28" s="29" t="str" cm="1">
+      <c r="Z28" s="19" t="str" cm="1">
         <f t="array" ref="Z28">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E28:X28),0,1),DEC2BIN(Y28,5))</f>
         <v>0000000000000000100010000000</v>
       </c>
-      <c r="AA28" s="29" t="str">
+      <c r="AA28" s="19" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z28,8),2),BIN2HEX(MID(Z28,9,8),2),BIN2HEX(MID(Z28,17,8),2),BIN2HEX(RIGHT(Z28,4)))</f>
         <v>0000880</v>
       </c>
@@ -2231,42 +2235,42 @@
         <f>ROW()-11</f>
         <v>18</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29">
-        <v>1</v>
-      </c>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29">
-        <v>1</v>
-      </c>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29">
-        <v>1</v>
-      </c>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19">
+        <v>1</v>
+      </c>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19">
+        <v>1</v>
+      </c>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19">
+        <v>1</v>
+      </c>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
       <c r="Y29" s="8">
         <v>0</v>
       </c>
-      <c r="Z29" s="29" t="str" cm="1">
+      <c r="Z29" s="19" t="str" cm="1">
         <f t="array" ref="Z29">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E29:X29),0,1),DEC2BIN(Y29,5))</f>
         <v>0000000000010010100010000000</v>
       </c>
-      <c r="AA29" s="29" t="str">
+      <c r="AA29" s="19" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z29,8),2),BIN2HEX(MID(Z29,9,8),2),BIN2HEX(MID(Z29,17,8),2),BIN2HEX(RIGHT(Z29,4)))</f>
         <v>0012880</v>
       </c>
@@ -2295,42 +2299,42 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29">
-        <v>1</v>
-      </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29">
-        <v>1</v>
-      </c>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29">
-        <v>1</v>
-      </c>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29">
-        <v>1</v>
-      </c>
-      <c r="X30" s="29"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19">
+        <v>1</v>
+      </c>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19">
+        <v>1</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19">
+        <v>1</v>
+      </c>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19">
+        <v>1</v>
+      </c>
+      <c r="X30" s="19"/>
       <c r="Y30" s="8">
         <v>19</v>
       </c>
-      <c r="Z30" s="29" t="str" cm="1">
+      <c r="Z30" s="19" t="str" cm="1">
         <f t="array" ref="Z30">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E30:X30),0,1),DEC2BIN(Y30,5))</f>
         <v>0000000100100000100001010011</v>
       </c>
-      <c r="AA30" s="29" t="str">
+      <c r="AA30" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0120853</v>
       </c>
@@ -2359,44 +2363,44 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29">
-        <v>1</v>
-      </c>
-      <c r="H31" s="29">
-        <v>1</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29">
-        <v>1</v>
-      </c>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29">
-        <v>1</v>
-      </c>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29">
-        <v>1</v>
-      </c>
-      <c r="X31" s="29"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="19">
+        <v>1</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19">
+        <v>1</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19">
+        <v>1</v>
+      </c>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19">
+        <v>1</v>
+      </c>
+      <c r="X31" s="19"/>
       <c r="Y31" s="8">
         <v>20</v>
       </c>
-      <c r="Z31" s="29" t="str" cm="1">
+      <c r="Z31" s="19" t="str" cm="1">
         <f t="array" ref="Z31">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E31:X31),0,1),DEC2BIN(Y31,5))</f>
         <v>0000011001000000100001010100</v>
       </c>
-      <c r="AA31" s="29" t="str">
+      <c r="AA31" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0640854</v>
       </c>
@@ -2425,42 +2429,42 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29">
-        <v>1</v>
-      </c>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29">
-        <v>1</v>
-      </c>
-      <c r="S32" s="29">
-        <v>1</v>
-      </c>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19">
+        <v>1</v>
+      </c>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19">
+        <v>1</v>
+      </c>
+      <c r="S32" s="19">
+        <v>1</v>
+      </c>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
       <c r="Y32" s="8">
         <v>0</v>
       </c>
-      <c r="Z32" s="29" t="str" cm="1">
+      <c r="Z32" s="19" t="str" cm="1">
         <f t="array" ref="Z32">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E32:X32),0,1),DEC2BIN(Y32,5))</f>
         <v>0000000000010010110000000000</v>
       </c>
-      <c r="AA32" s="29" t="str">
+      <c r="AA32" s="19" t="str">
         <f t="shared" si="1"/>
         <v>0012C00</v>
       </c>
@@ -2514,24 +2518,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
@@ -2586,15 +2590,15 @@
       <c r="AL5" s="11"/>
     </row>
     <row r="6" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
@@ -2679,26 +2683,26 @@
       <c r="AL7" s="14"/>
     </row>
     <row r="8" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="23" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="25"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="30"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
@@ -2793,15 +2797,15 @@
       <c r="AL12" s="11"/>
     </row>
     <row r="13" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
@@ -2886,26 +2890,26 @@
       <c r="AL14" s="14"/>
     </row>
     <row r="15" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="23" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="25"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="30"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
@@ -3000,15 +3004,15 @@
       <c r="AL19" s="11"/>
     </row>
     <row r="20" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
@@ -3093,23 +3097,23 @@
       <c r="AL21" s="14"/>
     </row>
     <row r="22" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="23" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="17">
         <v>1</v>
       </c>
@@ -3160,16 +3164,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:R15"/>
+    <mergeCell ref="G22:O22"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:R8"/>
     <mergeCell ref="C3:R3"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:R15"/>
-    <mergeCell ref="G22:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Microcode Generator.xlsx
+++ b/Microcode Generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Can\FÖDEVLER\CSE4117\HW1\cse4117-hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4F0E95-BD69-46EC-A455-4D30B3776B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911733CC-F1D9-417D-AFA9-5325D66F3B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE8CB966-0C5E-436C-AC6F-D64CE43CCC0D}"/>
   </bookViews>
@@ -2192,7 +2192,9 @@
         <v>1</v>
       </c>
       <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
+      <c r="T28" s="19">
+        <v>1</v>
+      </c>
       <c r="U28" s="19"/>
       <c r="V28" s="19">
         <v>1</v>
@@ -2204,11 +2206,11 @@
       </c>
       <c r="Z28" s="19" t="str" cm="1">
         <f t="array" ref="Z28">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E28:X28),0,1),DEC2BIN(Y28,5))</f>
-        <v>0000000000000000100010000000</v>
+        <v>0000000000000000101010000000</v>
       </c>
       <c r="AA28" s="19" t="str">
         <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z28,8),2),BIN2HEX(MID(Z28,9,8),2),BIN2HEX(MID(Z28,17,8),2),BIN2HEX(RIGHT(Z28,4)))</f>
-        <v>0000880</v>
+        <v>0000A80</v>
       </c>
       <c r="AB28" s="18"/>
       <c r="AC28" s="18"/>
@@ -3164,16 +3166,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="C3:R3"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="G15:R15"/>
     <mergeCell ref="G22:O22"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:R8"/>
-    <mergeCell ref="C3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Microcode Generator.xlsx
+++ b/Microcode Generator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Can\FÖDEVLER\CSE4117\HW1\cse4117-hw1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan\DÖDEVLER\CSE4117\cse4117-hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911733CC-F1D9-417D-AFA9-5325D66F3B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D036167-36E5-4ACC-A0E4-0435995AF8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE8CB966-0C5E-436C-AC6F-D64CE43CCC0D}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{DE8CB966-0C5E-436C-AC6F-D64CE43CCC0D}"/>
   </bookViews>
   <sheets>
     <sheet name="microcode" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17C1B6C-1DD3-447E-A634-9FBDC6E555DB}">
   <dimension ref="C1:AQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11:AA32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3166,16 +3166,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:R15"/>
+    <mergeCell ref="G22:O22"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:R8"/>
     <mergeCell ref="C3:R3"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:R15"/>
-    <mergeCell ref="G22:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Microcode Generator.xlsx
+++ b/Microcode Generator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan\DÖDEVLER\CSE4117\cse4117-hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D036167-36E5-4ACC-A0E4-0435995AF8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E022A7-0778-48C4-A89D-A1C1637AFA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{DE8CB966-0C5E-436C-AC6F-D64CE43CCC0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE8CB966-0C5E-436C-AC6F-D64CE43CCC0D}"/>
   </bookViews>
   <sheets>
     <sheet name="microcode" sheetId="1" r:id="rId1"/>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17C1B6C-1DD3-447E-A634-9FBDC6E555DB}">
   <dimension ref="C1:AQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2048,9 @@
         <v>15</v>
       </c>
       <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -2084,11 +2086,11 @@
       </c>
       <c r="Z26" s="19" t="str" cm="1">
         <f t="array" ref="Z26">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E26:X26),0,1),DEC2BIN(Y26,5))</f>
-        <v>0000000000011010101010010001</v>
+        <v>0000100000011010101010010001</v>
       </c>
       <c r="AA26" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>001AA91</v>
+        <v>081AA91</v>
       </c>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
@@ -2116,9 +2118,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="19"/>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
+      <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="Z27" s="19" t="str" cm="1">
         <f t="array" ref="Z27">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E27:X27),0,1),DEC2BIN(Y27,5))</f>
-        <v>0000100000000000100000000000</v>
+        <v>0000000000000000100000000000</v>
       </c>
       <c r="AA27" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0800800</v>
+        <v>0000800</v>
       </c>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
@@ -2315,7 +2315,9 @@
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
+      <c r="O30" s="19">
+        <v>1</v>
+      </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="19">
@@ -2330,15 +2332,15 @@
       </c>
       <c r="X30" s="19"/>
       <c r="Y30" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z30" s="19" t="str" cm="1">
         <f t="array" ref="Z30">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E30:X30),0,1),DEC2BIN(Y30,5))</f>
-        <v>0000000100100000100001010011</v>
+        <v>0000000100100100100001010100</v>
       </c>
       <c r="AA30" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0120853</v>
+        <v>0124854</v>
       </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
@@ -2396,15 +2398,15 @@
       </c>
       <c r="X31" s="19"/>
       <c r="Y31" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z31" s="19" t="str" cm="1">
         <f t="array" ref="Z31">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E31:X31),0,1),DEC2BIN(Y31,5))</f>
-        <v>0000011001000000100001010100</v>
+        <v>0000011001000000100001010101</v>
       </c>
       <c r="AA31" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0640854</v>
+        <v>0640855</v>
       </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
@@ -3166,16 +3168,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="C3:R3"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="G15:R15"/>
     <mergeCell ref="G22:O22"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:R8"/>
-    <mergeCell ref="C3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Microcode Generator.xlsx
+++ b/Microcode Generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan\DÖDEVLER\CSE4117\cse4117-hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E022A7-0778-48C4-A89D-A1C1637AFA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4418D05-17BA-4109-9959-FE1FBE0A7859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE8CB966-0C5E-436C-AC6F-D64CE43CCC0D}"/>
   </bookViews>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17C1B6C-1DD3-447E-A634-9FBDC6E555DB}">
   <dimension ref="C1:AQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A2972" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA11:AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,17 +1874,11 @@
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
-      <c r="R23" s="19">
-        <v>1</v>
-      </c>
+      <c r="R23" s="19"/>
       <c r="S23" s="19"/>
-      <c r="T23" s="19">
-        <v>1</v>
-      </c>
+      <c r="T23" s="19"/>
       <c r="U23" s="19"/>
-      <c r="V23" s="19">
-        <v>1</v>
-      </c>
+      <c r="V23" s="19"/>
       <c r="W23" s="19"/>
       <c r="X23" s="19"/>
       <c r="Y23" s="8">
@@ -1892,11 +1886,11 @@
       </c>
       <c r="Z23" s="19" t="str" cm="1">
         <f t="array" ref="Z23">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E23:X23),0,1),DEC2BIN(Y23,5))</f>
-        <v>0000000010000000101010000000</v>
+        <v>0000000010000000000000000000</v>
       </c>
       <c r="AA23" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0080A80</v>
+        <v>0080000</v>
       </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
@@ -1933,24 +1927,16 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="19">
-        <v>1</v>
-      </c>
+      <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="19">
-        <v>1</v>
-      </c>
+      <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
-      <c r="R24" s="19">
-        <v>1</v>
-      </c>
+      <c r="R24" s="19"/>
       <c r="S24" s="19"/>
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
-      <c r="V24" s="19">
-        <v>1</v>
-      </c>
+      <c r="V24" s="19"/>
       <c r="W24" s="19"/>
       <c r="X24" s="19"/>
       <c r="Y24" s="8">
@@ -1958,11 +1944,11 @@
       </c>
       <c r="Z24" s="19" t="str" cm="1">
         <f t="array" ref="Z24">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E24:X24),0,1),DEC2BIN(Y24,5))</f>
-        <v>0000000100010010100010000000</v>
+        <v>0000000100000000000000000000</v>
       </c>
       <c r="AA24" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0112880</v>
+        <v>0100000</v>
       </c>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
@@ -3168,16 +3154,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:R15"/>
+    <mergeCell ref="G22:O22"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:R8"/>
     <mergeCell ref="C3:R3"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:R15"/>
-    <mergeCell ref="G22:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Microcode Generator.xlsx
+++ b/Microcode Generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan\DÖDEVLER\CSE4117\cse4117-hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4418D05-17BA-4109-9959-FE1FBE0A7859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF00AD4-92E9-4325-809C-A8418CCB5B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE8CB966-0C5E-436C-AC6F-D64CE43CCC0D}"/>
   </bookViews>
@@ -57,49 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>D17</t>
-  </si>
-  <si>
-    <t>D16</t>
-  </si>
-  <si>
-    <t>D15</t>
-  </si>
-  <si>
-    <t>D14</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>FETCH</t>
   </si>
@@ -146,9 +104,6 @@
     <t>d</t>
   </si>
   <si>
-    <t>THIS IS A MULTISHEET EXCEL FILE</t>
-  </si>
-  <si>
     <t>LDI</t>
   </si>
   <si>
@@ -206,45 +161,18 @@
     <t>INT3</t>
   </si>
   <si>
-    <t>D[4:0]</t>
-  </si>
-  <si>
     <t>STI</t>
   </si>
   <si>
-    <t>12-bit Address Bus Vertebrate CPU Microcode</t>
-  </si>
-  <si>
     <t>INTLD</t>
   </si>
   <si>
-    <t>D22</t>
-  </si>
-  <si>
-    <t>D21</t>
-  </si>
-  <si>
-    <t>D20</t>
-  </si>
-  <si>
-    <t>D19</t>
-  </si>
-  <si>
-    <t>D18</t>
-  </si>
-  <si>
     <t>DATAMUX[1]</t>
   </si>
   <si>
     <t>DATAMUX[0]</t>
   </si>
   <si>
-    <t>D23</t>
-  </si>
-  <si>
-    <t>D24</t>
-  </si>
-  <si>
     <t>INTACK</t>
   </si>
   <si>
@@ -264,12 +192,6 @@
   </si>
   <si>
     <t>opcode:1110</t>
-  </si>
-  <si>
-    <t>Hex</t>
-  </si>
-  <si>
-    <t>Binary</t>
   </si>
   <si>
     <t>-------</t>
@@ -279,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,13 +211,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -385,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,27 +347,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,10 +689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17C1B6C-1DD3-447E-A634-9FBDC6E555DB}">
-  <dimension ref="C1:AQ34"/>
+  <dimension ref="C1:AQ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2972" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA11:AA32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2:AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,228 +707,552 @@
     <col min="38" max="38" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="D1" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
+    <row r="1" spans="3:43" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="2"/>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
     </row>
     <row r="2" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <f>ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19">
+        <v>1</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="19" t="str" cm="1">
+        <f t="array" ref="Z2">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E2:X2),0,1),DEC2BIN(Y2,5))</f>
+        <v>0001000000000001000000111111</v>
+      </c>
+      <c r="AA2" s="19" t="str">
+        <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z2,8)),BIN2HEX(MID(Z2,9,8),2),BIN2HEX(MID(Z2,17,8),2),BIN2HEX(RIGHT(Z2,4)))</f>
+        <v>100103F</v>
+      </c>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
     </row>
     <row r="3" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D23" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19">
+        <v>1</v>
+      </c>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19">
+        <v>1</v>
+      </c>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19">
+        <v>1</v>
+      </c>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="19" t="str" cm="1">
+        <f t="array" ref="Z3">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E3:X3),0,1),DEC2BIN(Y3,5))</f>
+        <v>0000000000000001001010000000</v>
+      </c>
+      <c r="AA3" s="19" t="str">
+        <f t="shared" ref="AA3:AA23" si="1">_xlfn.CONCAT(BIN2HEX(LEFT(Z3,8),2),BIN2HEX(MID(Z3,9,8),2),BIN2HEX(MID(Z3,17,8),2),BIN2HEX(RIGHT(Z3,4)))</f>
+        <v>0001280</v>
+      </c>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+    </row>
+    <row r="4" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19">
+        <v>1</v>
+      </c>
+      <c r="T4" s="19">
+        <v>1</v>
+      </c>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19">
+        <v>1</v>
+      </c>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="19" t="str" cm="1">
+        <f t="array" ref="Z4">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E4:X4),0,1),DEC2BIN(Y4,5))</f>
+        <v>0000000000000000011010000000</v>
+      </c>
+      <c r="AA4" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>0000680</v>
+      </c>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+    </row>
+    <row r="5" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19">
+        <v>1</v>
+      </c>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19">
+        <v>1</v>
+      </c>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="19" t="str" cm="1">
+        <f t="array" ref="Z5">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E5:X5),0,1),DEC2BIN(Y5,5))</f>
+        <v>0000000000000000010001000000</v>
+      </c>
+      <c r="AA5" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>0000440</v>
+      </c>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
     </row>
     <row r="6" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19">
+        <v>1</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="19" t="str" cm="1">
+        <f t="array" ref="Z6">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E6:X6),0,1),DEC2BIN(Y6,5))</f>
+        <v>0000000000000001000000000000</v>
+      </c>
+      <c r="AA6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>0001000</v>
+      </c>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
-      <c r="AN6" s="11"/>
+      <c r="AN6" s="9"/>
       <c r="AO6" s="11"/>
       <c r="AP6" s="11"/>
       <c r="AQ6" s="11"/>
     </row>
     <row r="7" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19">
+        <v>1</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="19" t="str" cm="1">
+        <f t="array" ref="Z7">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E7:X7),0,1),DEC2BIN(Y7,5))</f>
+        <v>0000000000010010000000000000</v>
+      </c>
+      <c r="AA7" s="19" t="str">
+        <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z7,8),2),BIN2HEX(MID(Z7,9,8),2),BIN2HEX(MID(Z7,17,8),2),BIN2HEX(RIGHT(Z7,4)))</f>
+        <v>0012000</v>
+      </c>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
-      <c r="AN7" s="11"/>
+      <c r="AN7" s="9"/>
       <c r="AO7" s="11"/>
       <c r="AP7" s="11"/>
       <c r="AQ7" s="11"/>
     </row>
     <row r="8" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="D8" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
+      <c r="C8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="19" t="str" cm="1">
+        <f t="array" ref="Z8">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E8:X8),0,1),DEC2BIN(Y8,5))</f>
+        <v>0000000000000000000000000000</v>
+      </c>
+      <c r="AA8" s="19" t="str">
+        <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z8,8),2),BIN2HEX(MID(Z8,9,8),2),BIN2HEX(MID(Z8,17,8),2),BIN2HEX(RIGHT(Z8,4)))</f>
+        <v>0000000</v>
+      </c>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
-      <c r="AN8" s="11"/>
+      <c r="AN8" s="9"/>
       <c r="AO8" s="11"/>
       <c r="AP8" s="11"/>
       <c r="AQ8" s="11"/>
     </row>
     <row r="9" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19">
+        <v>1</v>
+      </c>
+      <c r="U9" s="19">
+        <v>1</v>
+      </c>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z9" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA9" s="21" t="s">
-        <v>69</v>
+      <c r="Z9" s="19" t="str" cm="1">
+        <f t="array" ref="Z9">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E9:X9),0,1),DEC2BIN(Y9,5))</f>
+        <v>0000000000000000001100000000</v>
+      </c>
+      <c r="AA9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>0000300</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
@@ -1036,108 +1264,84 @@
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
       <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
+      <c r="AL9" s="9"/>
       <c r="AM9" s="9"/>
-      <c r="AN9" s="11"/>
+      <c r="AN9" s="9"/>
       <c r="AO9" s="11"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="11"/>
     </row>
-    <row r="10" spans="3:43" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="3" t="s">
+    <row r="10" spans="3:43" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="13"/>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19">
+        <v>1</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19">
+        <v>1</v>
+      </c>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19">
+        <v>1</v>
+      </c>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="19" t="str" cm="1">
+        <f t="array" ref="Z10">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E10:X10),0,1),DEC2BIN(Y10,5))</f>
+        <v>0000000000000100100001000000</v>
+      </c>
+      <c r="AA10" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>0004840</v>
+      </c>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
-      <c r="AN10" s="11"/>
+      <c r="AN10" s="9"/>
       <c r="AO10" s="11"/>
       <c r="AP10" s="11"/>
       <c r="AQ10" s="11"/>
     </row>
     <row r="11" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:D28" si="0">ROW()-11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -1146,31 +1350,29 @@
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="N11" s="19">
+        <v>1</v>
+      </c>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
-      <c r="Q11" s="19">
-        <v>1</v>
-      </c>
+      <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
-      <c r="X11" s="19">
-        <v>1</v>
-      </c>
+      <c r="X11" s="19"/>
       <c r="Y11" s="8">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z11" s="19" t="str" cm="1">
         <f t="array" ref="Z11">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E11:X11),0,1),DEC2BIN(Y11,5))</f>
-        <v>0001000000000001000000100000</v>
+        <v>0000000000001000000000010001</v>
       </c>
       <c r="AA11" s="19" t="str">
-        <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z11,8)),BIN2HEX(MID(Z11,9,8),2),BIN2HEX(MID(Z11,17,8),2),BIN2HEX(RIGHT(Z11,4)))</f>
-        <v>1001020</v>
+        <f t="shared" si="1"/>
+        <v>0008011</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
@@ -1191,11 +1393,11 @@
     </row>
     <row r="12" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -1204,35 +1406,39 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="L12" s="19">
+        <v>1</v>
+      </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19">
-        <v>1</v>
-      </c>
-      <c r="R12" s="19"/>
+      <c r="O12" s="19">
+        <v>1</v>
+      </c>
+      <c r="P12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19">
+        <v>1</v>
+      </c>
       <c r="S12" s="19"/>
-      <c r="T12" s="19">
-        <v>1</v>
-      </c>
+      <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="19">
-        <v>1</v>
-      </c>
-      <c r="W12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19">
+        <v>1</v>
+      </c>
       <c r="X12" s="19"/>
       <c r="Y12" s="8">
         <v>0</v>
       </c>
       <c r="Z12" s="19" t="str" cm="1">
         <f t="array" ref="Z12">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E12:X12),0,1),DEC2BIN(Y12,5))</f>
-        <v>0000000000000001001010000000</v>
+        <v>0000000000100110100001000000</v>
       </c>
       <c r="AA12" s="19" t="str">
-        <f t="shared" ref="AA12:AA32" si="1">_xlfn.CONCAT(BIN2HEX(LEFT(Z12,8),2),BIN2HEX(MID(Z12,9,8),2),BIN2HEX(MID(Z12,17,8),2),BIN2HEX(RIGHT(Z12,4)))</f>
-        <v>0001280</v>
+        <f t="shared" si="1"/>
+        <v>0026840</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
@@ -1253,11 +1459,11 @@
     </row>
     <row r="13" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -1268,33 +1474,29 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+      <c r="N13" s="19">
+        <v>1</v>
+      </c>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
-      <c r="S13" s="19">
-        <v>1</v>
-      </c>
-      <c r="T13" s="19">
-        <v>1</v>
-      </c>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
       <c r="U13" s="19"/>
-      <c r="V13" s="19">
-        <v>1</v>
-      </c>
+      <c r="V13" s="19"/>
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z13" s="19" t="str" cm="1">
         <f t="array" ref="Z13">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E13:X13),0,1),DEC2BIN(Y13,5))</f>
-        <v>0000000000000000011010000000</v>
+        <v>0000000000001000000000010010</v>
       </c>
       <c r="AA13" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0000680</v>
+        <v>0008012</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
@@ -1315,18 +1517,20 @@
     </row>
     <row r="14" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="J14" s="19">
+        <v>1</v>
+      </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
@@ -1335,26 +1539,22 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
-      <c r="S14" s="19">
-        <v>1</v>
-      </c>
+      <c r="S14" s="19"/>
       <c r="T14" s="19"/>
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
-      <c r="W14" s="19">
-        <v>1</v>
-      </c>
+      <c r="W14" s="19"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="8">
         <v>0</v>
       </c>
       <c r="Z14" s="19" t="str" cm="1">
         <f t="array" ref="Z14">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E14:X14),0,1),DEC2BIN(Y14,5))</f>
-        <v>0000000000000000010001000000</v>
+        <v>0000000010000000000000000000</v>
       </c>
       <c r="AA14" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0000440</v>
+        <v>0080000</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
@@ -1375,17 +1575,19 @@
     </row>
     <row r="15" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
@@ -1393,9 +1595,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
-      <c r="Q15" s="19">
-        <v>1</v>
-      </c>
+      <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
@@ -1408,11 +1608,11 @@
       </c>
       <c r="Z15" s="19" t="str" cm="1">
         <f t="array" ref="Z15">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E15:X15),0,1),DEC2BIN(Y15,5))</f>
-        <v>0000000000000001000000000000</v>
+        <v>0000000100000000000000000000</v>
       </c>
       <c r="AA15" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0001000</v>
+        <v>0100000</v>
       </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
@@ -1432,12 +1632,12 @@
       <c r="AQ15" s="11"/>
     </row>
     <row r="16" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
-        <v>34</v>
+      <c r="C16" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -1447,14 +1647,12 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="19">
-        <v>1</v>
-      </c>
-      <c r="N16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19">
+        <v>1</v>
+      </c>
       <c r="O16" s="19"/>
-      <c r="P16" s="19">
-        <v>1</v>
-      </c>
+      <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
@@ -1463,16 +1661,16 @@
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
-      <c r="Y16" s="8">
-        <v>0</v>
+      <c r="Y16" s="29">
+        <v>15</v>
       </c>
       <c r="Z16" s="19" t="str" cm="1">
         <f t="array" ref="Z16">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E16:X16),0,1),DEC2BIN(Y16,5))</f>
-        <v>0000000000010010000000000000</v>
+        <v>0000000000001000000000001111</v>
       </c>
       <c r="AA16" s="19" t="str">
-        <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z16,8),2),BIN2HEX(MID(Z16,9,8),2),BIN2HEX(MID(Z16,17,8),2),BIN2HEX(RIGHT(Z16,4)))</f>
-        <v>0012000</v>
+        <f t="shared" si="1"/>
+        <v>000800F</v>
       </c>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
@@ -1492,15 +1690,17 @@
       <c r="AQ16" s="11"/>
     </row>
     <row r="17" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C17" s="23" t="s">
-        <v>71</v>
+      <c r="C17" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1508,38 +1708,44 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="N17" s="19">
+        <v>1</v>
+      </c>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
+      <c r="R17" s="19">
+        <v>1</v>
+      </c>
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
+      <c r="V17" s="19">
+        <v>1</v>
+      </c>
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
       <c r="Y17" s="8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z17" s="19" t="str" cm="1">
         <f t="array" ref="Z17">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E17:X17),0,1),DEC2BIN(Y17,5))</f>
-        <v>0000000000000000000000000000</v>
+        <v>0000100000001000100010010000</v>
       </c>
       <c r="AA17" s="19" t="str">
-        <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z17,8),2),BIN2HEX(MID(Z17,9,8),2),BIN2HEX(MID(Z17,17,8),2),BIN2HEX(RIGHT(Z17,4)))</f>
-        <v>0000000</v>
-      </c>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="18"/>
+        <f t="shared" si="1"/>
+        <v>0808890</v>
+      </c>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
       <c r="AL17" s="9"/>
       <c r="AM17" s="9"/>
       <c r="AN17" s="9"/>
@@ -1548,12 +1754,12 @@
       <c r="AQ17" s="11"/>
     </row>
     <row r="18" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
-        <v>39</v>
+      <c r="C18" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -1563,19 +1769,21 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="M18" s="19">
+        <v>1</v>
+      </c>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
+      <c r="P18" s="19">
+        <v>1</v>
+      </c>
       <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
+      <c r="R18" s="19">
+        <v>1</v>
+      </c>
       <c r="S18" s="19"/>
-      <c r="T18" s="19">
-        <v>1</v>
-      </c>
-      <c r="U18" s="19">
-        <v>1</v>
-      </c>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="19"/>
@@ -1584,11 +1792,11 @@
       </c>
       <c r="Z18" s="19" t="str" cm="1">
         <f t="array" ref="Z18">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E18:X18),0,1),DEC2BIN(Y18,5))</f>
-        <v>0000000000000000001100000000</v>
+        <v>0000000000010010100000000000</v>
       </c>
       <c r="AA18" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0000300</v>
+        <v>0012800</v>
       </c>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
@@ -1609,11 +1817,11 @@
     </row>
     <row r="19" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -1625,43 +1833,43 @@
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
-      <c r="O19" s="19">
-        <v>1</v>
-      </c>
+      <c r="O19" s="19"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="19">
         <v>1</v>
       </c>
       <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
+      <c r="T19" s="19">
+        <v>1</v>
+      </c>
       <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19">
-        <v>1</v>
-      </c>
+      <c r="V19" s="19">
+        <v>1</v>
+      </c>
+      <c r="W19" s="19"/>
       <c r="X19" s="19"/>
       <c r="Y19" s="8">
         <v>0</v>
       </c>
       <c r="Z19" s="19" t="str" cm="1">
         <f t="array" ref="Z19">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E19:X19),0,1),DEC2BIN(Y19,5))</f>
-        <v>0000000000000100100001000000</v>
+        <v>0000000000000000101010000000</v>
       </c>
       <c r="AA19" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>0004840</v>
-      </c>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
+        <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z19,8),2),BIN2HEX(MID(Z19,9,8),2),BIN2HEX(MID(Z19,17,8),2),BIN2HEX(RIGHT(Z19,4)))</f>
+        <v>0000A80</v>
+      </c>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
       <c r="AN19" s="9"/>
@@ -1671,11 +1879,11 @@
     </row>
     <row r="20" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
@@ -1685,41 +1893,47 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19">
-        <v>1</v>
-      </c>
+      <c r="M20" s="19">
+        <v>1</v>
+      </c>
+      <c r="N20" s="19"/>
       <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
+      <c r="P20" s="19">
+        <v>1</v>
+      </c>
       <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
+      <c r="R20" s="19">
+        <v>1</v>
+      </c>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
       <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
+      <c r="V20" s="19">
+        <v>1</v>
+      </c>
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
       <c r="Y20" s="8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="19" t="str" cm="1">
         <f t="array" ref="Z20">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E20:X20),0,1),DEC2BIN(Y20,5))</f>
-        <v>0000000000001000000000010001</v>
+        <v>0000000000010010100010000000</v>
       </c>
       <c r="AA20" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>0008011</v>
-      </c>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
+        <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z20,8),2),BIN2HEX(MID(Z20,9,8),2),BIN2HEX(MID(Z20,17,8),2),BIN2HEX(RIGHT(Z20,4)))</f>
+        <v>0012880</v>
+      </c>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
       <c r="AL20" s="9"/>
       <c r="AM20" s="9"/>
       <c r="AN20" s="9"/>
@@ -1729,17 +1943,19 @@
     </row>
     <row r="21" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="I21" s="19">
+        <v>1</v>
+      </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19">
@@ -1750,9 +1966,7 @@
       <c r="O21" s="19">
         <v>1</v>
       </c>
-      <c r="P21" s="19">
-        <v>1</v>
-      </c>
+      <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19">
         <v>1</v>
@@ -1766,116 +1980,132 @@
       </c>
       <c r="X21" s="19"/>
       <c r="Y21" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z21" s="19" t="str" cm="1">
         <f t="array" ref="Z21">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E21:X21),0,1),DEC2BIN(Y21,5))</f>
-        <v>0000000000100110100001000000</v>
+        <v>0000000100100100100001010100</v>
       </c>
       <c r="AA21" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0026840</v>
-      </c>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
+        <v>0124854</v>
+      </c>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
+      <c r="AN21" s="11"/>
       <c r="AO21" s="11"/>
       <c r="AP21" s="11"/>
       <c r="AQ21" s="11"/>
     </row>
     <row r="22" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1</v>
+      </c>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
+      <c r="K22" s="19">
+        <v>1</v>
+      </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="19">
-        <v>1</v>
-      </c>
-      <c r="O22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19">
+        <v>1</v>
+      </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
+      <c r="R22" s="19">
+        <v>1</v>
+      </c>
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
+      <c r="W22" s="19">
+        <v>1</v>
+      </c>
       <c r="X22" s="19"/>
       <c r="Y22" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z22" s="19" t="str" cm="1">
         <f t="array" ref="Z22">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E22:X22),0,1),DEC2BIN(Y22,5))</f>
-        <v>0000000000001000000000010010</v>
+        <v>0000011001000100100001010101</v>
       </c>
       <c r="AA22" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0008012</v>
-      </c>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
+        <v>0644855</v>
+      </c>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
+      <c r="AN22" s="11"/>
       <c r="AO22" s="11"/>
       <c r="AP22" s="11"/>
       <c r="AQ22" s="11"/>
     </row>
     <row r="23" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ref="D23:D32" si="2">ROW()-11</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="19">
-        <v>1</v>
-      </c>
+      <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="19">
+        <v>1</v>
+      </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
+      <c r="P23" s="19">
+        <v>1</v>
+      </c>
       <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
+      <c r="R23" s="19">
+        <v>1</v>
+      </c>
+      <c r="S23" s="19">
+        <v>1</v>
+      </c>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
@@ -1886,607 +2116,36 @@
       </c>
       <c r="Z23" s="19" t="str" cm="1">
         <f t="array" ref="Z23">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E23:X23),0,1),DEC2BIN(Y23,5))</f>
-        <v>0000000010000000000000000000</v>
+        <v>0000000000010010110000000000</v>
       </c>
       <c r="AA23" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0080000</v>
-      </c>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
+        <v>0012C00</v>
+      </c>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
       <c r="AO23" s="11"/>
       <c r="AP23" s="11"/>
       <c r="AQ23" s="11"/>
     </row>
     <row r="24" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19">
-        <v>1</v>
-      </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="19" t="str" cm="1">
-        <f t="array" ref="Z24">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E24:X24),0,1),DEC2BIN(Y24,5))</f>
-        <v>0000000100000000000000000000</v>
-      </c>
-      <c r="AA24" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>0100000</v>
-      </c>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
       <c r="AO24" s="11"/>
       <c r="AP24" s="11"/>
       <c r="AQ24" s="11"/>
     </row>
     <row r="25" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19">
-        <v>1</v>
-      </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="8">
-        <v>16</v>
-      </c>
-      <c r="Z25" s="19" t="str" cm="1">
-        <f t="array" ref="Z25">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E25:X25),0,1),DEC2BIN(Y25,5))</f>
-        <v>0000000000001000000000010000</v>
-      </c>
-      <c r="AA25" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>0008010</v>
-      </c>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
       <c r="AO25" s="11"/>
       <c r="AP25" s="11"/>
       <c r="AQ25" s="11"/>
     </row>
-    <row r="26" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19">
-        <v>1</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19">
-        <v>1</v>
-      </c>
-      <c r="N26" s="19">
-        <v>1</v>
-      </c>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19">
-        <v>1</v>
-      </c>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19">
-        <v>1</v>
-      </c>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19">
-        <v>1</v>
-      </c>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="8">
-        <v>17</v>
-      </c>
-      <c r="Z26" s="19" t="str" cm="1">
-        <f t="array" ref="Z26">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E26:X26),0,1),DEC2BIN(Y26,5))</f>
-        <v>0000100000011010101010010001</v>
-      </c>
-      <c r="AA26" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>081AA91</v>
-      </c>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="11"/>
-      <c r="AP26" s="11"/>
-      <c r="AQ26" s="11"/>
-    </row>
-    <row r="27" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19">
-        <v>1</v>
-      </c>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="19" t="str" cm="1">
-        <f t="array" ref="Z27">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E27:X27),0,1),DEC2BIN(Y27,5))</f>
-        <v>0000000000000000100000000000</v>
-      </c>
-      <c r="AA27" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>0000800</v>
-      </c>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="9"/>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
-    </row>
-    <row r="28" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19">
-        <v>1</v>
-      </c>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19">
-        <v>1</v>
-      </c>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19">
-        <v>1</v>
-      </c>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="19" t="str" cm="1">
-        <f t="array" ref="Z28">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E28:X28),0,1),DEC2BIN(Y28,5))</f>
-        <v>0000000000000000101010000000</v>
-      </c>
-      <c r="AA28" s="19" t="str">
-        <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z28,8),2),BIN2HEX(MID(Z28,9,8),2),BIN2HEX(MID(Z28,17,8),2),BIN2HEX(RIGHT(Z28,4)))</f>
-        <v>0000A80</v>
-      </c>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="9"/>
-      <c r="AN28" s="9"/>
-      <c r="AO28" s="11"/>
-      <c r="AP28" s="11"/>
-      <c r="AQ28" s="11"/>
-    </row>
-    <row r="29" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="1">
-        <f>ROW()-11</f>
-        <v>18</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19">
-        <v>1</v>
-      </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19">
-        <v>1</v>
-      </c>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19">
-        <v>1</v>
-      </c>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="19" t="str" cm="1">
-        <f t="array" ref="Z29">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E29:X29),0,1),DEC2BIN(Y29,5))</f>
-        <v>0000000000010010100010000000</v>
-      </c>
-      <c r="AA29" s="19" t="str">
-        <f>_xlfn.CONCAT(BIN2HEX(LEFT(Z29,8),2),BIN2HEX(MID(Z29,9,8),2),BIN2HEX(MID(Z29,17,8),2),BIN2HEX(RIGHT(Z29,4)))</f>
-        <v>0012880</v>
-      </c>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="18"/>
-      <c r="AI29" s="18"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
-      <c r="AL29" s="9"/>
-      <c r="AM29" s="9"/>
-      <c r="AN29" s="9"/>
-      <c r="AO29" s="11"/>
-      <c r="AP29" s="11"/>
-      <c r="AQ29" s="11"/>
-    </row>
-    <row r="30" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19">
-        <v>1</v>
-      </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19">
-        <v>1</v>
-      </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19">
-        <v>1</v>
-      </c>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19">
-        <v>1</v>
-      </c>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19">
-        <v>1</v>
-      </c>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="8">
-        <v>20</v>
-      </c>
-      <c r="Z30" s="19" t="str" cm="1">
-        <f t="array" ref="Z30">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E30:X30),0,1),DEC2BIN(Y30,5))</f>
-        <v>0000000100100100100001010100</v>
-      </c>
-      <c r="AA30" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>0124854</v>
-      </c>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9"/>
-      <c r="AK30" s="9"/>
-      <c r="AL30" s="9"/>
-      <c r="AM30" s="9"/>
-      <c r="AN30" s="11"/>
-      <c r="AO30" s="11"/>
-      <c r="AP30" s="11"/>
-      <c r="AQ30" s="11"/>
-    </row>
-    <row r="31" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19">
-        <v>1</v>
-      </c>
-      <c r="H31" s="19">
-        <v>1</v>
-      </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19">
-        <v>1</v>
-      </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19">
-        <v>1</v>
-      </c>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19">
-        <v>1</v>
-      </c>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="8">
-        <v>21</v>
-      </c>
-      <c r="Z31" s="19" t="str" cm="1">
-        <f t="array" ref="Z31">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E31:X31),0,1),DEC2BIN(Y31,5))</f>
-        <v>0000011001000000100001010101</v>
-      </c>
-      <c r="AA31" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>0640855</v>
-      </c>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="9"/>
-      <c r="AL31" s="9"/>
-      <c r="AM31" s="9"/>
-      <c r="AN31" s="11"/>
-      <c r="AO31" s="11"/>
-      <c r="AP31" s="11"/>
-      <c r="AQ31" s="11"/>
-    </row>
-    <row r="32" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="C32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19">
-        <v>1</v>
-      </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19">
-        <v>1</v>
-      </c>
-      <c r="S32" s="19">
-        <v>1</v>
-      </c>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="19" t="str" cm="1">
-        <f t="array" ref="Z32">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E32:X32),0,1),DEC2BIN(Y32,5))</f>
-        <v>0000000000010010110000000000</v>
-      </c>
-      <c r="AA32" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>0012C00</v>
-      </c>
-      <c r="AL32" s="11"/>
-      <c r="AM32" s="11"/>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="11"/>
-      <c r="AP32" s="11"/>
-      <c r="AQ32" s="11"/>
-    </row>
-    <row r="33" spans="38:43" x14ac:dyDescent="0.25">
-      <c r="AL33" s="11"/>
-      <c r="AM33" s="11"/>
-      <c r="AN33" s="11"/>
-      <c r="AO33" s="11"/>
-      <c r="AP33" s="11"/>
-      <c r="AQ33" s="11"/>
-    </row>
-    <row r="34" spans="38:43" x14ac:dyDescent="0.25">
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D8:T8"/>
-    <mergeCell ref="AA8:AG8"/>
-    <mergeCell ref="D1:Y3"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2508,24 +2167,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C3" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="C3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
@@ -2580,15 +2239,15 @@
       <c r="AL5" s="11"/>
     </row>
     <row r="6" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="C6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
@@ -2673,26 +2332,26 @@
       <c r="AL7" s="14"/>
     </row>
     <row r="8" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C8" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="30"/>
+      <c r="C8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="25"/>
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
@@ -2787,15 +2446,15 @@
       <c r="AL12" s="11"/>
     </row>
     <row r="13" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C13" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="C13" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
@@ -2880,26 +2539,26 @@
       <c r="AL14" s="14"/>
     </row>
     <row r="15" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C15" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
+      <c r="C15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25"/>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
@@ -2994,15 +2653,15 @@
       <c r="AL19" s="11"/>
     </row>
     <row r="20" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C20" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
+      <c r="C20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
@@ -3087,23 +2746,23 @@
       <c r="AL21" s="14"/>
     </row>
     <row r="22" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C22" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
+      <c r="C22" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
       <c r="P22" s="17">
         <v>1</v>
       </c>
@@ -3154,16 +2813,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="C3:R3"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="G15:R15"/>
     <mergeCell ref="G22:O22"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:R8"/>
-    <mergeCell ref="C3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Microcode Generator.xlsx
+++ b/Microcode Generator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan\DÖDEVLER\CSE4117\cse4117-hw1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Can\FÖDEVLER\CSE4117\HW1\cse4117-hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF00AD4-92E9-4325-809C-A8418CCB5B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AFC06C-A98F-45CA-A7ED-23E4F096A4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE8CB966-0C5E-436C-AC6F-D64CE43CCC0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE8CB966-0C5E-436C-AC6F-D64CE43CCC0D}"/>
   </bookViews>
   <sheets>
     <sheet name="microcode" sheetId="1" r:id="rId1"/>
@@ -351,8 +351,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,8 +372,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,7 +393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -692,8 +692,8 @@
   <dimension ref="C1:AQ25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA2" sqref="AA2:AA23"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,9 +1414,7 @@
       <c r="O12" s="19">
         <v>1</v>
       </c>
-      <c r="P12" s="19">
-        <v>1</v>
-      </c>
+      <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19">
         <v>1</v>
@@ -1430,15 +1428,15 @@
       </c>
       <c r="X12" s="19"/>
       <c r="Y12" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z12" s="19" t="str" cm="1">
         <f t="array" ref="Z12">_xlfn.CONCAT(REPT(0,3),IF(ISBLANK(E12:X12),0,1),DEC2BIN(Y12,5))</f>
-        <v>0000000000100110100001000000</v>
+        <v>0000000000100100100001000101</v>
       </c>
       <c r="AA12" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>0026840</v>
+        <v>0024845</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
@@ -1661,7 +1659,7 @@
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
-      <c r="Y16" s="29">
+      <c r="Y16" s="22">
         <v>15</v>
       </c>
       <c r="Z16" s="19" t="str" cm="1">
@@ -2167,24 +2165,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
